--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ACD/15/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ACD/15/seed5/result_data_RandomForest.xlsx
@@ -485,10 +485,10 @@
         <v>4.03</v>
       </c>
       <c r="C3" t="n">
-        <v>-10.37209999999999</v>
+        <v>-10.37309999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>-7.088099999999992</v>
+        <v>-6.994399999999992</v>
       </c>
       <c r="E3" t="n">
         <v>17.78</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.5783</v>
+        <v>-21.55309999999999</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -672,7 +672,7 @@
         <v>4.04</v>
       </c>
       <c r="C14" t="n">
-        <v>-13.0722</v>
+        <v>-12.9669</v>
       </c>
       <c r="D14" t="n">
         <v>-7.43</v>
@@ -777,7 +777,7 @@
         <v>-14.88</v>
       </c>
       <c r="D20" t="n">
-        <v>-7.678199999999999</v>
+        <v>-7.558000000000002</v>
       </c>
       <c r="E20" t="n">
         <v>16.97</v>
@@ -862,7 +862,7 @@
         <v>-11.07</v>
       </c>
       <c r="D25" t="n">
-        <v>-7.614499999999998</v>
+        <v>-7.7132</v>
       </c>
       <c r="E25" t="n">
         <v>16.01</v>
@@ -876,7 +876,7 @@
         <v>6.56</v>
       </c>
       <c r="C26" t="n">
-        <v>-12.7846</v>
+        <v>-12.9296</v>
       </c>
       <c r="D26" t="n">
         <v>-9.31</v>
@@ -887,7 +887,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.7419</v>
+        <v>-21.755</v>
       </c>
       <c r="B27" t="n">
         <v>5.54</v>
@@ -947,7 +947,7 @@
         <v>-10.71</v>
       </c>
       <c r="D30" t="n">
-        <v>-7.1047</v>
+        <v>-7.272900000000005</v>
       </c>
       <c r="E30" t="n">
         <v>16.57</v>
@@ -961,7 +961,7 @@
         <v>4.47</v>
       </c>
       <c r="C31" t="n">
-        <v>-12.9206</v>
+        <v>-12.93</v>
       </c>
       <c r="D31" t="n">
         <v>-9.77</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.34149999999999</v>
+        <v>-21.32449999999999</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -1029,7 +1029,7 @@
         <v>10.18</v>
       </c>
       <c r="C35" t="n">
-        <v>-11.95370000000001</v>
+        <v>-11.89930000000001</v>
       </c>
       <c r="D35" t="n">
         <v>-9.9</v>
@@ -1040,7 +1040,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-19.9099</v>
+        <v>-20.0454</v>
       </c>
       <c r="B36" t="n">
         <v>9.84</v>
@@ -1063,7 +1063,7 @@
         <v>9.41</v>
       </c>
       <c r="C37" t="n">
-        <v>-13.3671</v>
+        <v>-13.0715</v>
       </c>
       <c r="D37" t="n">
         <v>-7.88</v>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-19.5248</v>
+        <v>-19.7109</v>
       </c>
       <c r="B38" t="n">
         <v>9.66</v>
@@ -1185,7 +1185,7 @@
         <v>-10.47</v>
       </c>
       <c r="D44" t="n">
-        <v>-7.240499999999998</v>
+        <v>-7.449400000000004</v>
       </c>
       <c r="E44" t="n">
         <v>16.52</v>
@@ -1199,7 +1199,7 @@
         <v>5.73</v>
       </c>
       <c r="C45" t="n">
-        <v>-14.1881</v>
+        <v>-14.04199999999999</v>
       </c>
       <c r="D45" t="n">
         <v>-7.87</v>
@@ -1210,7 +1210,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-21.4329</v>
+        <v>-21.5122</v>
       </c>
       <c r="B46" t="n">
         <v>4.17</v>
@@ -1236,7 +1236,7 @@
         <v>-11.84</v>
       </c>
       <c r="D47" t="n">
-        <v>-7.374700000000001</v>
+        <v>-7.4057</v>
       </c>
       <c r="E47" t="n">
         <v>17.05</v>
@@ -1318,7 +1318,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-10.9568</v>
+        <v>-11.0134</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1346,7 +1346,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-21.56809999999998</v>
+        <v>-21.55799999999998</v>
       </c>
       <c r="B54" t="n">
         <v>6.01</v>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.5431</v>
+        <v>-22.48740000000001</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1380,7 +1380,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-22.2367</v>
+        <v>-22.1991</v>
       </c>
       <c r="B56" t="n">
         <v>4.42</v>
@@ -1403,7 +1403,7 @@
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-14.53569999999999</v>
+        <v>-14.54399999999998</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1423,7 +1423,7 @@
         <v>-15.6</v>
       </c>
       <c r="D58" t="n">
-        <v>-8.231699999999991</v>
+        <v>-8.230099999999997</v>
       </c>
       <c r="E58" t="n">
         <v>16.91</v>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-21.49209999999998</v>
+        <v>-21.51289999999998</v>
       </c>
       <c r="B67" t="n">
         <v>5.53</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.69089999999998</v>
+        <v>-21.62899999999997</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-21.48999999999999</v>
+        <v>-21.46909999999998</v>
       </c>
       <c r="B72" t="n">
         <v>6.81</v>
@@ -1763,7 +1763,7 @@
         <v>-13.33</v>
       </c>
       <c r="D78" t="n">
-        <v>-7.633200000000004</v>
+        <v>-7.643400000000003</v>
       </c>
       <c r="E78" t="n">
         <v>17.28</v>
@@ -1811,7 +1811,7 @@
         <v>3.85</v>
       </c>
       <c r="C81" t="n">
-        <v>-13.2562</v>
+        <v>-13.2328</v>
       </c>
       <c r="D81" t="n">
         <v>-8.390000000000001</v>
@@ -1839,13 +1839,13 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.80730000000001</v>
+        <v>-21.41259999999999</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
       </c>
       <c r="C83" t="n">
-        <v>-11.89910000000001</v>
+        <v>-11.36490000000001</v>
       </c>
       <c r="D83" t="n">
         <v>-7.67</v>
@@ -1865,7 +1865,7 @@
         <v>-12.28</v>
       </c>
       <c r="D84" t="n">
-        <v>-8.4407</v>
+        <v>-8.631000000000004</v>
       </c>
       <c r="E84" t="n">
         <v>16.54</v>
@@ -1890,7 +1890,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-22.22550000000001</v>
+        <v>-22.37200000000002</v>
       </c>
       <c r="B86" t="n">
         <v>4.69</v>
@@ -1950,7 +1950,7 @@
         <v>-10.11</v>
       </c>
       <c r="D89" t="n">
-        <v>-6.179799999999996</v>
+        <v>-6.035799999999997</v>
       </c>
       <c r="E89" t="n">
         <v>19.73</v>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-21.46630000000001</v>
+        <v>-21.52470000000001</v>
       </c>
       <c r="B91" t="n">
         <v>4.28</v>
@@ -1984,7 +1984,7 @@
         <v>-10.09</v>
       </c>
       <c r="D91" t="n">
-        <v>-6.180599999999996</v>
+        <v>-6.043799999999997</v>
       </c>
       <c r="E91" t="n">
         <v>19.72</v>
@@ -2001,7 +2001,7 @@
         <v>-9.49</v>
       </c>
       <c r="D92" t="n">
-        <v>-6.008999999999998</v>
+        <v>-6.0411</v>
       </c>
       <c r="E92" t="n">
         <v>19.64</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.15</v>
+        <v>-21.1824</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2069,7 +2069,7 @@
         <v>-10.59</v>
       </c>
       <c r="D96" t="n">
-        <v>-7.377600000000002</v>
+        <v>-7.435000000000003</v>
       </c>
       <c r="E96" t="n">
         <v>16.3</v>
@@ -2111,7 +2111,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-20.36889999999998</v>
+        <v>-20.33299999999999</v>
       </c>
       <c r="B99" t="n">
         <v>8.42</v>
@@ -2134,7 +2134,7 @@
         <v>5.09</v>
       </c>
       <c r="C100" t="n">
-        <v>-12.4404</v>
+        <v>-12.4915</v>
       </c>
       <c r="D100" t="n">
         <v>-7.71</v>
@@ -2168,10 +2168,10 @@
         <v>9.01</v>
       </c>
       <c r="C102" t="n">
-        <v>-13.954</v>
+        <v>-14.53169999999999</v>
       </c>
       <c r="D102" t="n">
-        <v>-7.865000000000002</v>
+        <v>-7.794</v>
       </c>
       <c r="E102" t="n">
         <v>16.08</v>
